--- a/downloads/Bahnhöfe_mit_Zugangskoordinaten_GK4_lon-lat_Auswahl.xlsx
+++ b/downloads/Bahnhöfe_mit_Zugangskoordinaten_GK4_lon-lat_Auswahl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="-60" windowWidth="14115" windowHeight="14655"/>
+    <workbookView xWindow="270" yWindow="-90" windowWidth="27825" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7443" uniqueCount="3675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7444" uniqueCount="3676">
   <si>
     <t>Bauwerk</t>
   </si>
@@ -11042,6 +11042,9 @@
   </si>
   <si>
     <t>Bahnsteig Gleis 1+2, Aufzug zum Bahnsteig der Ringbahn</t>
+  </si>
+  <si>
+    <t>HAFAS</t>
   </si>
 </sst>
 </file>
@@ -11093,7 +11096,203 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -11615,11 +11814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J1919"/>
+  <dimension ref="A2:L1919"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1847" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1852" sqref="K1852"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A1868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1853" sqref="L1853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11631,7 +11830,7 @@
     <col min="5" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="1"/>
     <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -11656,6 +11855,9 @@
       <c r="I3" s="1" t="s">
         <v>1697</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>3675</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -11709,8 +11911,11 @@
       <c r="H6" s="1" t="s">
         <v>1707</v>
       </c>
+      <c r="I6" s="1">
+        <v>100003</v>
+      </c>
       <c r="J6" s="1">
-        <v>100003</v>
+        <v>9100003</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15622,8 +15827,11 @@
       <c r="H142" s="1" t="s">
         <v>1834</v>
       </c>
+      <c r="I142" s="1">
+        <v>100001</v>
+      </c>
       <c r="J142" s="1">
-        <v>100001</v>
+        <v>9100001</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18868,8 +19076,11 @@
       <c r="H255" s="1" t="s">
         <v>1895</v>
       </c>
+      <c r="I255" s="1">
+        <v>42101</v>
+      </c>
       <c r="J255" s="1">
-        <v>42101</v>
+        <v>9042101</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19853,8 +20064,11 @@
       <c r="H291" s="1" t="s">
         <v>1932</v>
       </c>
+      <c r="I291" s="1">
+        <v>44202</v>
+      </c>
       <c r="J291" s="1">
-        <v>44202</v>
+        <v>9044202</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21649,8 +21863,11 @@
       <c r="H354" s="1" t="s">
         <v>1979</v>
       </c>
+      <c r="I354" s="1">
+        <v>78201</v>
+      </c>
       <c r="J354" s="1">
-        <v>78201</v>
+        <v>9078201</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22592,8 +22809,11 @@
       <c r="H388" s="1" t="s">
         <v>2038</v>
       </c>
+      <c r="I388" s="1">
+        <v>57103</v>
+      </c>
       <c r="J388" s="1">
-        <v>57103</v>
+        <v>9057103</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23286,13 +23506,19 @@
       <c r="H413" s="1" t="s">
         <v>2224</v>
       </c>
+      <c r="I413" s="1">
+        <v>20201</v>
+      </c>
       <c r="J413" s="1">
-        <v>20201</v>
+        <v>9020201</v>
       </c>
     </row>
     <row r="414" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I414" s="1">
+        <v>20207</v>
+      </c>
       <c r="J414" s="1">
-        <v>20207</v>
+        <v>9020207</v>
       </c>
     </row>
     <row r="415" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24680,8 +24906,11 @@
       <c r="H463" s="1" t="s">
         <v>2201</v>
       </c>
+      <c r="I463" s="1">
+        <v>9104</v>
+      </c>
       <c r="J463" s="1">
-        <v>9104</v>
+        <v>9009104</v>
       </c>
     </row>
     <row r="464" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25344,8 +25573,11 @@
       <c r="H487" s="1" t="s">
         <v>2266</v>
       </c>
+      <c r="I487" s="1">
+        <v>1201</v>
+      </c>
       <c r="J487" s="1">
-        <v>1201</v>
+        <v>9001201</v>
       </c>
     </row>
     <row r="488" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26066,8 +26298,11 @@
       <c r="H513" s="1" t="s">
         <v>2349</v>
       </c>
+      <c r="I513" s="1">
+        <v>7102</v>
+      </c>
       <c r="J513" s="1">
-        <v>7102</v>
+        <v>9007102</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28963,8 +29198,11 @@
       <c r="H614" s="1" t="s">
         <v>2286</v>
       </c>
+      <c r="I614" s="1">
+        <v>110001</v>
+      </c>
       <c r="J614" s="1">
-        <v>110001</v>
+        <v>9110001</v>
       </c>
     </row>
     <row r="615" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29946,8 +30184,11 @@
       <c r="H649" s="1" t="s">
         <v>2584</v>
       </c>
+      <c r="I649" s="1">
+        <v>120001</v>
+      </c>
       <c r="J649" s="1">
-        <v>120001</v>
+        <v>9120001</v>
       </c>
     </row>
     <row r="650" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30929,8 +31170,11 @@
       <c r="H684" s="1" t="s">
         <v>2896</v>
       </c>
+      <c r="I684" s="1">
+        <v>120003</v>
+      </c>
       <c r="J684" s="1">
-        <v>120003</v>
+        <v>9120003</v>
       </c>
     </row>
     <row r="685" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31999,8 +32243,11 @@
       <c r="H722" s="1" t="s">
         <v>2970</v>
       </c>
+      <c r="I722" s="1">
+        <v>190001</v>
+      </c>
       <c r="J722" s="1">
-        <v>190001</v>
+        <v>9190001</v>
       </c>
     </row>
     <row r="723" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32721,8 +32968,11 @@
       <c r="H748" s="1" t="s">
         <v>2171</v>
       </c>
+      <c r="I748" s="1">
+        <v>68201</v>
+      </c>
       <c r="J748" s="1">
-        <v>68201</v>
+        <v>9068201</v>
       </c>
     </row>
     <row r="749" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33414,8 +33664,11 @@
       <c r="H773" s="1" t="s">
         <v>3066</v>
       </c>
+      <c r="I773" s="1">
+        <v>54104</v>
+      </c>
       <c r="J773" s="1">
-        <v>54104</v>
+        <v>9054104</v>
       </c>
     </row>
     <row r="774" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34194,8 +34447,11 @@
       <c r="H801" s="1" t="s">
         <v>2134</v>
       </c>
+      <c r="I801" s="1">
+        <v>45102</v>
+      </c>
       <c r="J801" s="1">
-        <v>45102</v>
+        <v>9045102</v>
       </c>
     </row>
     <row r="802" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35148,8 +35404,11 @@
       <c r="H835" s="1" t="s">
         <v>2084</v>
       </c>
+      <c r="I835" s="1">
+        <v>24102</v>
+      </c>
       <c r="J835" s="1">
-        <v>24102</v>
+        <v>9024102</v>
       </c>
     </row>
     <row r="836" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36131,8 +36390,11 @@
       <c r="H870" s="1" t="s">
         <v>3021</v>
       </c>
+      <c r="I870" s="1">
+        <v>24106</v>
+      </c>
       <c r="J870" s="1">
-        <v>24106</v>
+        <v>9024106</v>
       </c>
     </row>
     <row r="871" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36824,8 +37086,11 @@
       <c r="H895" s="1" t="s">
         <v>2689</v>
       </c>
+      <c r="I895" s="1">
+        <v>23201</v>
+      </c>
       <c r="J895" s="1">
-        <v>23201</v>
+        <v>9023201</v>
       </c>
     </row>
     <row r="896" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -40156,8 +40421,11 @@
       <c r="H1011" s="1" t="s">
         <v>3189</v>
       </c>
+      <c r="I1011" s="1">
+        <v>24101</v>
+      </c>
       <c r="J1011" s="1">
-        <v>24101</v>
+        <v>9024101</v>
       </c>
     </row>
     <row r="1012" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41429,8 +41697,11 @@
       <c r="H1056" s="1" t="s">
         <v>3276</v>
       </c>
+      <c r="I1056" s="1">
+        <v>3201</v>
+      </c>
       <c r="J1056" s="1">
-        <v>3201</v>
+        <v>9003201</v>
       </c>
     </row>
     <row r="1057" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48589,8 +48860,11 @@
       <c r="H1304" s="1" t="s">
         <v>2427</v>
       </c>
+      <c r="I1304" s="1">
+        <v>120004</v>
+      </c>
       <c r="J1304" s="1">
-        <v>120004</v>
+        <v>9120004</v>
       </c>
     </row>
     <row r="1305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49311,8 +49585,11 @@
       <c r="H1330" s="1" t="s">
         <v>2852</v>
       </c>
+      <c r="I1330" s="1">
+        <v>260005</v>
+      </c>
       <c r="J1330" s="1">
-        <v>260005</v>
+        <v>9260005</v>
       </c>
     </row>
     <row r="1331" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -50729,8 +51006,11 @@
       <c r="H1380" s="1" t="s">
         <v>3118</v>
       </c>
+      <c r="I1380" s="1">
+        <v>53301</v>
+      </c>
       <c r="J1380" s="1">
-        <v>53301</v>
+        <v>9053301</v>
       </c>
     </row>
     <row r="1381" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51770,8 +52050,11 @@
       <c r="H1417" s="1" t="s">
         <v>2465</v>
       </c>
+      <c r="I1417" s="1">
+        <v>29302</v>
+      </c>
       <c r="J1417" s="1">
-        <v>29302</v>
+        <v>9029302</v>
       </c>
     </row>
     <row r="1418" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54725,8 +55008,11 @@
       <c r="H1520" s="1" t="s">
         <v>2529</v>
       </c>
+      <c r="I1520" s="1">
+        <v>160004</v>
+      </c>
       <c r="J1520" s="1">
-        <v>160004</v>
+        <v>9160004</v>
       </c>
     </row>
     <row r="1521" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57042,8 +57328,11 @@
       <c r="H1601" s="1" t="s">
         <v>2628</v>
       </c>
+      <c r="I1601" s="1">
+        <v>100020</v>
+      </c>
       <c r="J1601" s="1">
-        <v>100020</v>
+        <v>9100020</v>
       </c>
     </row>
     <row r="1602" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -60646,8 +60935,11 @@
       <c r="H1745" s="1" t="s">
         <v>2086</v>
       </c>
+      <c r="I1745" s="1">
+        <v>56101</v>
+      </c>
       <c r="J1745" s="1">
-        <v>56101</v>
+        <v>9056101</v>
       </c>
     </row>
     <row r="1746" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -61085,7 +61377,7 @@
         <v>9712704</v>
       </c>
     </row>
-    <row r="1761" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1761" s="1" t="s">
         <v>1</v>
       </c>
@@ -61114,7 +61406,7 @@
         <v>9712713</v>
       </c>
     </row>
-    <row r="1762" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
         <v>1</v>
       </c>
@@ -61143,7 +61435,7 @@
         <v>9712714</v>
       </c>
     </row>
-    <row r="1763" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1763" s="1" t="s">
         <v>3</v>
       </c>
@@ -61172,7 +61464,7 @@
         <v>9712705</v>
       </c>
     </row>
-    <row r="1764" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1764" s="1" t="s">
         <v>4</v>
       </c>
@@ -61201,7 +61493,7 @@
         <v>9712708</v>
       </c>
     </row>
-    <row r="1765" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1765" s="1" t="s">
         <v>3</v>
       </c>
@@ -61230,7 +61522,7 @@
         <v>9712706</v>
       </c>
     </row>
-    <row r="1766" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
         <v>3</v>
       </c>
@@ -61259,7 +61551,7 @@
         <v>9712707</v>
       </c>
     </row>
-    <row r="1767" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
         <v>4</v>
       </c>
@@ -61288,7 +61580,7 @@
         <v>9712709</v>
       </c>
     </row>
-    <row r="1768" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1768" s="1" t="s">
         <v>1</v>
       </c>
@@ -61317,7 +61609,7 @@
         <v>9712720</v>
       </c>
     </row>
-    <row r="1769" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1769" s="1" t="s">
         <v>1</v>
       </c>
@@ -61346,7 +61638,7 @@
         <v>9712722</v>
       </c>
     </row>
-    <row r="1771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1771" s="1" t="s">
         <v>0</v>
       </c>
@@ -61363,16 +61655,19 @@
         <v>5806937</v>
       </c>
       <c r="G1771" s="3" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H1771" s="3" t="s">
         <v>3362</v>
       </c>
-      <c r="H1771" s="3" t="s">
-        <v>3363</v>
+      <c r="I1771" s="1">
+        <v>230005</v>
       </c>
       <c r="J1771" s="1">
-        <v>230005</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9230005</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1772" s="1" t="s">
         <v>2</v>
       </c>
@@ -61392,16 +61687,17 @@
         <v>5806977</v>
       </c>
       <c r="G1772" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H1772" s="3" t="s">
         <v>3365</v>
-      </c>
-      <c r="H1772" s="3" t="s">
-        <v>3366</v>
       </c>
       <c r="I1772" s="1">
         <v>9750001</v>
       </c>
-    </row>
-    <row r="1773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1772" s="3"/>
+    </row>
+    <row r="1773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
         <v>2</v>
       </c>
@@ -61421,16 +61717,17 @@
         <v>5807010</v>
       </c>
       <c r="G1773" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="H1773" s="3" t="s">
         <v>3368</v>
-      </c>
-      <c r="H1773" s="3" t="s">
-        <v>3369</v>
       </c>
       <c r="I1773" s="1">
         <v>9750003</v>
       </c>
-    </row>
-    <row r="1774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1773" s="3"/>
+    </row>
+    <row r="1774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
         <v>2</v>
       </c>
@@ -61450,16 +61747,17 @@
         <v>5806951</v>
       </c>
       <c r="G1774" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="H1774" s="3" t="s">
         <v>3371</v>
-      </c>
-      <c r="H1774" s="3" t="s">
-        <v>3372</v>
       </c>
       <c r="I1774" s="1">
         <v>9750002</v>
       </c>
-    </row>
-    <row r="1775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1774" s="3"/>
+    </row>
+    <row r="1775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
         <v>3</v>
       </c>
@@ -61479,16 +61777,17 @@
         <v>5806883</v>
       </c>
       <c r="G1775" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="H1775" s="3" t="s">
         <v>3374</v>
-      </c>
-      <c r="H1775" s="3" t="s">
-        <v>3375</v>
       </c>
       <c r="I1775" s="1">
         <v>9750004</v>
       </c>
-    </row>
-    <row r="1776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1775" s="3"/>
+    </row>
+    <row r="1776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
         <v>3</v>
       </c>
@@ -61508,16 +61807,17 @@
         <v>5807070</v>
       </c>
       <c r="G1776" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="H1776" s="3" t="s">
         <v>3377</v>
-      </c>
-      <c r="H1776" s="3" t="s">
-        <v>3378</v>
       </c>
       <c r="I1776" s="1">
         <v>9750005</v>
       </c>
-    </row>
-    <row r="1777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1776" s="3"/>
+    </row>
+    <row r="1777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
         <v>3</v>
       </c>
@@ -61537,16 +61837,17 @@
         <v>5807121</v>
       </c>
       <c r="G1777" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H1777" s="3" t="s">
         <v>3380</v>
-      </c>
-      <c r="H1777" s="3" t="s">
-        <v>3381</v>
       </c>
       <c r="I1777" s="1">
         <v>9750006</v>
       </c>
-    </row>
-    <row r="1778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1777" s="3"/>
+    </row>
+    <row r="1778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
         <v>3</v>
       </c>
@@ -61566,16 +61867,17 @@
         <v>5806894</v>
       </c>
       <c r="G1778" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="H1778" s="3" t="s">
         <v>3383</v>
-      </c>
-      <c r="H1778" s="3" t="s">
-        <v>3384</v>
       </c>
       <c r="I1778" s="1">
         <v>9750007</v>
       </c>
-    </row>
-    <row r="1779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1778" s="3"/>
+    </row>
+    <row r="1779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1779" s="1" t="s">
         <v>4</v>
       </c>
@@ -61595,16 +61897,17 @@
         <v>5807138</v>
       </c>
       <c r="G1779" s="3" t="s">
+        <v>3387</v>
+      </c>
+      <c r="H1779" s="3" t="s">
         <v>3386</v>
-      </c>
-      <c r="H1779" s="3" t="s">
-        <v>3387</v>
       </c>
       <c r="I1779" s="1">
         <v>9750008</v>
       </c>
-    </row>
-    <row r="1780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1779" s="3"/>
+    </row>
+    <row r="1780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1780" s="1" t="s">
         <v>4</v>
       </c>
@@ -61624,16 +61927,17 @@
         <v>5807146</v>
       </c>
       <c r="G1780" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="H1780" s="3" t="s">
         <v>3389</v>
-      </c>
-      <c r="H1780" s="3" t="s">
-        <v>3390</v>
       </c>
       <c r="I1780" s="1">
         <v>9750009</v>
       </c>
-    </row>
-    <row r="1781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1780" s="3"/>
+    </row>
+    <row r="1781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1781" s="1" t="s">
         <v>4</v>
       </c>
@@ -61653,16 +61957,17 @@
         <v>5806879</v>
       </c>
       <c r="G1781" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H1781" s="3" t="s">
         <v>3392</v>
-      </c>
-      <c r="H1781" s="3" t="s">
-        <v>3393</v>
       </c>
       <c r="I1781" s="1">
         <v>9750010</v>
       </c>
-    </row>
-    <row r="1782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1781" s="3"/>
+    </row>
+    <row r="1782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
         <v>4</v>
       </c>
@@ -61682,16 +61987,17 @@
         <v>5806866</v>
       </c>
       <c r="G1782" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H1782" s="3" t="s">
         <v>3395</v>
-      </c>
-      <c r="H1782" s="3" t="s">
-        <v>2887</v>
       </c>
       <c r="I1782" s="1">
         <v>9750011</v>
       </c>
-    </row>
-    <row r="1783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1782" s="3"/>
+    </row>
+    <row r="1783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
         <v>4</v>
       </c>
@@ -61711,16 +62017,17 @@
         <v>5806855</v>
       </c>
       <c r="G1783" s="3" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H1783" s="3" t="s">
         <v>3397</v>
-      </c>
-      <c r="H1783" s="3" t="s">
-        <v>3398</v>
       </c>
       <c r="I1783" s="1">
         <v>9750012</v>
       </c>
-    </row>
-    <row r="1784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1783" s="3"/>
+    </row>
+    <row r="1784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
         <v>4</v>
       </c>
@@ -61740,16 +62047,17 @@
         <v>5806849</v>
       </c>
       <c r="G1784" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="H1784" s="3" t="s">
         <v>3400</v>
-      </c>
-      <c r="H1784" s="3" t="s">
-        <v>3401</v>
       </c>
       <c r="I1784" s="1">
         <v>9750013</v>
       </c>
-    </row>
-    <row r="1785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1784" s="3"/>
+    </row>
+    <row r="1785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
         <v>4</v>
       </c>
@@ -61769,16 +62077,17 @@
         <v>5806840</v>
       </c>
       <c r="G1785" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="H1785" s="3" t="s">
         <v>3403</v>
-      </c>
-      <c r="H1785" s="3" t="s">
-        <v>3404</v>
       </c>
       <c r="I1785" s="1">
         <v>9750014</v>
       </c>
-    </row>
-    <row r="1786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1785" s="3"/>
+    </row>
+    <row r="1786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>4</v>
       </c>
@@ -61798,16 +62107,17 @@
         <v>5806837</v>
       </c>
       <c r="G1786" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H1786" s="3" t="s">
         <v>3406</v>
-      </c>
-      <c r="H1786" s="3" t="s">
-        <v>3407</v>
       </c>
       <c r="I1786" s="1">
         <v>9750015</v>
       </c>
-    </row>
-    <row r="1787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1786" s="3"/>
+    </row>
+    <row r="1787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
         <v>4</v>
       </c>
@@ -61827,16 +62137,17 @@
         <v>5806869</v>
       </c>
       <c r="G1787" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="H1787" s="3" t="s">
         <v>3409</v>
-      </c>
-      <c r="H1787" s="3" t="s">
-        <v>3410</v>
       </c>
       <c r="I1787" s="1">
         <v>9750016</v>
       </c>
-    </row>
-    <row r="1788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1787" s="3"/>
+    </row>
+    <row r="1788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
         <v>4</v>
       </c>
@@ -61856,16 +62167,17 @@
         <v>5806851</v>
       </c>
       <c r="G1788" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="H1788" s="3" t="s">
         <v>3412</v>
-      </c>
-      <c r="H1788" s="3" t="s">
-        <v>3413</v>
       </c>
       <c r="I1788" s="1">
         <v>9750017</v>
       </c>
-    </row>
-    <row r="1789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1788" s="3"/>
+    </row>
+    <row r="1789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
         <v>1</v>
       </c>
@@ -61885,16 +62197,17 @@
         <v>5806981</v>
       </c>
       <c r="G1789" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="H1789" s="3" t="s">
         <v>3415</v>
-      </c>
-      <c r="H1789" s="3" t="s">
-        <v>3416</v>
       </c>
       <c r="I1789" s="1">
         <v>9750018</v>
       </c>
-    </row>
-    <row r="1790" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1789" s="3"/>
+    </row>
+    <row r="1790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
         <v>1</v>
       </c>
@@ -61914,16 +62227,17 @@
         <v>5806979</v>
       </c>
       <c r="G1790" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="H1790" s="3" t="s">
         <v>3418</v>
-      </c>
-      <c r="H1790" s="3" t="s">
-        <v>3419</v>
       </c>
       <c r="I1790" s="1">
         <v>9750019</v>
       </c>
-    </row>
-    <row r="1791" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1790" s="3"/>
+    </row>
+    <row r="1791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
         <v>1</v>
       </c>
@@ -61943,16 +62257,17 @@
         <v>5806980</v>
       </c>
       <c r="G1791" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="H1791" s="3" t="s">
         <v>3421</v>
-      </c>
-      <c r="H1791" s="3" t="s">
-        <v>3422</v>
       </c>
       <c r="I1791" s="1">
         <v>9750020</v>
       </c>
-    </row>
-    <row r="1792" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1791" s="3"/>
+    </row>
+    <row r="1792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
         <v>1</v>
       </c>
@@ -61972,16 +62287,17 @@
         <v>5806950</v>
       </c>
       <c r="G1792" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="H1792" s="3" t="s">
         <v>3424</v>
-      </c>
-      <c r="H1792" s="3" t="s">
-        <v>3425</v>
       </c>
       <c r="I1792" s="1">
         <v>9750021</v>
       </c>
-    </row>
-    <row r="1793" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1792" s="3"/>
+    </row>
+    <row r="1793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
         <v>1</v>
       </c>
@@ -62001,16 +62317,17 @@
         <v>5806946</v>
       </c>
       <c r="G1793" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="H1793" s="3" t="s">
         <v>3392</v>
-      </c>
-      <c r="H1793" s="3" t="s">
-        <v>3427</v>
       </c>
       <c r="I1793" s="1">
         <v>9750022</v>
       </c>
-    </row>
-    <row r="1794" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1793" s="3"/>
+    </row>
+    <row r="1794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
         <v>1</v>
       </c>
@@ -62030,16 +62347,17 @@
         <v>5806946</v>
       </c>
       <c r="G1794" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="H1794" s="3" t="s">
         <v>3429</v>
-      </c>
-      <c r="H1794" s="3" t="s">
-        <v>3430</v>
       </c>
       <c r="I1794" s="1">
         <v>9750023</v>
       </c>
-    </row>
-    <row r="1795" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1794" s="3"/>
+    </row>
+    <row r="1795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
         <v>1</v>
       </c>
@@ -62059,16 +62377,17 @@
         <v>5807012</v>
       </c>
       <c r="G1795" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H1795" s="3" t="s">
         <v>3432</v>
-      </c>
-      <c r="H1795" s="3" t="s">
-        <v>3433</v>
       </c>
       <c r="I1795" s="1">
         <v>9750024</v>
       </c>
-    </row>
-    <row r="1796" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1795" s="3"/>
+    </row>
+    <row r="1796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
         <v>1</v>
       </c>
@@ -62088,16 +62407,17 @@
         <v>5807004</v>
       </c>
       <c r="G1796" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="H1796" s="3" t="s">
         <v>3435</v>
-      </c>
-      <c r="H1796" s="3" t="s">
-        <v>3436</v>
       </c>
       <c r="I1796" s="1">
         <v>9750025</v>
       </c>
-    </row>
-    <row r="1797" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1796" s="3"/>
+    </row>
+    <row r="1797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
         <v>1</v>
       </c>
@@ -62117,16 +62437,17 @@
         <v>5807012</v>
       </c>
       <c r="G1797" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="H1797" s="3" t="s">
         <v>3438</v>
-      </c>
-      <c r="H1797" s="3" t="s">
-        <v>3439</v>
       </c>
       <c r="I1797" s="1">
         <v>9750026</v>
       </c>
-    </row>
-    <row r="1798" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1797" s="3"/>
+    </row>
+    <row r="1798" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
         <v>1</v>
       </c>
@@ -62146,16 +62467,17 @@
         <v>5806924</v>
       </c>
       <c r="G1798" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="H1798" s="3" t="s">
         <v>3441</v>
-      </c>
-      <c r="H1798" s="3" t="s">
-        <v>3442</v>
       </c>
       <c r="I1798" s="1">
         <v>9750027</v>
       </c>
-    </row>
-    <row r="1799" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1798" s="3"/>
+    </row>
+    <row r="1799" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
         <v>1</v>
       </c>
@@ -62175,16 +62497,17 @@
         <v>5806924</v>
       </c>
       <c r="G1799" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="H1799" s="3" t="s">
         <v>3444</v>
-      </c>
-      <c r="H1799" s="3" t="s">
-        <v>3445</v>
       </c>
       <c r="I1799" s="1">
         <v>9750029</v>
       </c>
-    </row>
-    <row r="1800" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1799" s="3"/>
+    </row>
+    <row r="1800" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
         <v>1</v>
       </c>
@@ -62204,16 +62527,17 @@
         <v>5807103</v>
       </c>
       <c r="G1800" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="H1800" s="3" t="s">
         <v>3447</v>
-      </c>
-      <c r="H1800" s="3" t="s">
-        <v>3448</v>
       </c>
       <c r="I1800" s="1">
         <v>9750030</v>
       </c>
-    </row>
-    <row r="1801" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1800" s="3"/>
+    </row>
+    <row r="1801" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
         <v>1</v>
       </c>
@@ -62233,16 +62557,17 @@
         <v>5807101</v>
       </c>
       <c r="G1801" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H1801" s="3" t="s">
         <v>3450</v>
-      </c>
-      <c r="H1801" s="3" t="s">
-        <v>3451</v>
       </c>
       <c r="I1801" s="1">
         <v>9750031</v>
       </c>
-    </row>
-    <row r="1802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1801" s="3"/>
+    </row>
+    <row r="1802" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
         <v>1</v>
       </c>
@@ -62262,16 +62587,17 @@
         <v>5807100</v>
       </c>
       <c r="G1802" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="H1802" s="3" t="s">
         <v>3453</v>
-      </c>
-      <c r="H1802" s="3" t="s">
-        <v>3454</v>
       </c>
       <c r="I1802" s="1">
         <v>9750032</v>
       </c>
-    </row>
-    <row r="1803" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1802" s="3"/>
+    </row>
+    <row r="1803" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1803" s="1" t="s">
         <v>1</v>
       </c>
@@ -62291,16 +62617,17 @@
         <v>5806925</v>
       </c>
       <c r="G1803" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="H1803" s="3" t="s">
         <v>3456</v>
-      </c>
-      <c r="H1803" s="3" t="s">
-        <v>3457</v>
       </c>
       <c r="I1803" s="1">
         <v>9750028</v>
       </c>
-    </row>
-    <row r="1804" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1803" s="3"/>
+    </row>
+    <row r="1804" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1804" s="1" t="s">
         <v>1</v>
       </c>
@@ -62320,16 +62647,17 @@
         <v>5807050</v>
       </c>
       <c r="G1804" s="3" t="s">
+        <v>3460</v>
+      </c>
+      <c r="H1804" s="3" t="s">
         <v>3459</v>
-      </c>
-      <c r="H1804" s="3" t="s">
-        <v>3460</v>
       </c>
       <c r="I1804" s="1">
         <v>9750033</v>
       </c>
-    </row>
-    <row r="1805" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1804" s="3"/>
+    </row>
+    <row r="1805" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
         <v>1</v>
       </c>
@@ -62349,16 +62677,17 @@
         <v>5806978</v>
       </c>
       <c r="G1805" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H1805" s="3" t="s">
         <v>3462</v>
-      </c>
-      <c r="H1805" s="3" t="s">
-        <v>3366</v>
       </c>
       <c r="I1805" s="1">
         <v>9750040</v>
       </c>
-    </row>
-    <row r="1806" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1805" s="3"/>
+    </row>
+    <row r="1806" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1806" s="1" t="s">
         <v>1</v>
       </c>
@@ -62378,16 +62707,17 @@
         <v>5806977</v>
       </c>
       <c r="G1806" s="3" t="s">
+        <v>3465</v>
+      </c>
+      <c r="H1806" s="3" t="s">
         <v>3464</v>
-      </c>
-      <c r="H1806" s="3" t="s">
-        <v>3465</v>
       </c>
       <c r="I1806" s="1">
         <v>9750041</v>
       </c>
-    </row>
-    <row r="1807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1806" s="3"/>
+    </row>
+    <row r="1807" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
         <v>1</v>
       </c>
@@ -62407,16 +62737,17 @@
         <v>5806956</v>
       </c>
       <c r="G1807" s="3" t="s">
+        <v>3468</v>
+      </c>
+      <c r="H1807" s="3" t="s">
         <v>3467</v>
-      </c>
-      <c r="H1807" s="3" t="s">
-        <v>3468</v>
       </c>
       <c r="I1807" s="1">
         <v>9750042</v>
       </c>
-    </row>
-    <row r="1808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1807" s="3"/>
+    </row>
+    <row r="1808" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1808" s="1" t="s">
         <v>1</v>
       </c>
@@ -62436,16 +62767,17 @@
         <v>5807092</v>
       </c>
       <c r="G1808" s="3" t="s">
+        <v>3471</v>
+      </c>
+      <c r="H1808" s="3" t="s">
         <v>3470</v>
-      </c>
-      <c r="H1808" s="3" t="s">
-        <v>3471</v>
       </c>
       <c r="I1808" s="1">
         <v>9750038</v>
       </c>
-    </row>
-    <row r="1809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1808" s="3"/>
+    </row>
+    <row r="1809" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1809" s="1" t="s">
         <v>1</v>
       </c>
@@ -62465,16 +62797,17 @@
         <v>5806950</v>
       </c>
       <c r="G1809" s="3" t="s">
+        <v>3474</v>
+      </c>
+      <c r="H1809" s="3" t="s">
         <v>3473</v>
-      </c>
-      <c r="H1809" s="3" t="s">
-        <v>3474</v>
       </c>
       <c r="I1809" s="1">
         <v>9750039</v>
       </c>
-    </row>
-    <row r="1810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1809" s="3"/>
+    </row>
+    <row r="1810" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1810" s="1" t="s">
         <v>1</v>
       </c>
@@ -62494,16 +62827,17 @@
         <v>5806945</v>
       </c>
       <c r="G1810" s="3" t="s">
+        <v>3477</v>
+      </c>
+      <c r="H1810" s="3" t="s">
         <v>3476</v>
-      </c>
-      <c r="H1810" s="3" t="s">
-        <v>3477</v>
       </c>
       <c r="I1810" s="1">
         <v>9750043</v>
       </c>
-    </row>
-    <row r="1811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1810" s="3"/>
+    </row>
+    <row r="1811" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1811" s="1" t="s">
         <v>1</v>
       </c>
@@ -62523,16 +62857,17 @@
         <v>5807053</v>
       </c>
       <c r="G1811" s="3" t="s">
+        <v>3480</v>
+      </c>
+      <c r="H1811" s="3" t="s">
         <v>3479</v>
-      </c>
-      <c r="H1811" s="3" t="s">
-        <v>3480</v>
       </c>
       <c r="I1811" s="1">
         <v>9750034</v>
       </c>
-    </row>
-    <row r="1812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1811" s="3"/>
+    </row>
+    <row r="1812" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1812" s="1" t="s">
         <v>1</v>
       </c>
@@ -62552,16 +62887,17 @@
         <v>5807051</v>
       </c>
       <c r="G1812" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="H1812" s="3" t="s">
         <v>3482</v>
-      </c>
-      <c r="H1812" s="3" t="s">
-        <v>3483</v>
       </c>
       <c r="I1812" s="1">
         <v>9750035</v>
       </c>
-    </row>
-    <row r="1813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1812" s="3"/>
+    </row>
+    <row r="1813" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1813" s="1" t="s">
         <v>1</v>
       </c>
@@ -62581,16 +62917,17 @@
         <v>5807093</v>
       </c>
       <c r="G1813" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="H1813" s="3" t="s">
         <v>3485</v>
-      </c>
-      <c r="H1813" s="3" t="s">
-        <v>3486</v>
       </c>
       <c r="I1813" s="1">
         <v>9750036</v>
       </c>
-    </row>
-    <row r="1814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1813" s="3"/>
+    </row>
+    <row r="1814" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1814" s="1" t="s">
         <v>1</v>
       </c>
@@ -62610,16 +62947,17 @@
         <v>5807093</v>
       </c>
       <c r="G1814" s="3" t="s">
+        <v>3489</v>
+      </c>
+      <c r="H1814" s="3" t="s">
         <v>3488</v>
-      </c>
-      <c r="H1814" s="3" t="s">
-        <v>3489</v>
       </c>
       <c r="I1814" s="1">
         <v>9750037</v>
       </c>
-    </row>
-    <row r="1815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1814" s="3"/>
+    </row>
+    <row r="1815" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1815" s="1" t="s">
         <v>1</v>
       </c>
@@ -62639,16 +62977,17 @@
         <v>5806944</v>
       </c>
       <c r="G1815" s="3" t="s">
+        <v>3492</v>
+      </c>
+      <c r="H1815" s="3" t="s">
         <v>3491</v>
-      </c>
-      <c r="H1815" s="3" t="s">
-        <v>3492</v>
       </c>
       <c r="I1815" s="1">
         <v>9750044</v>
       </c>
-    </row>
-    <row r="1816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1815" s="3"/>
+    </row>
+    <row r="1816" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1816" s="1" t="s">
         <v>1</v>
       </c>
@@ -62668,16 +63007,17 @@
         <v>5807014</v>
       </c>
       <c r="G1816" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="H1816" s="3" t="s">
         <v>3494</v>
-      </c>
-      <c r="H1816" s="3" t="s">
-        <v>3495</v>
       </c>
       <c r="I1816" s="1">
         <v>9750045</v>
       </c>
-    </row>
-    <row r="1817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1816" s="3"/>
+    </row>
+    <row r="1817" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1817" s="1" t="s">
         <v>1</v>
       </c>
@@ -62697,16 +63037,17 @@
         <v>5807003</v>
       </c>
       <c r="G1817" s="3" t="s">
+        <v>3498</v>
+      </c>
+      <c r="H1817" s="3" t="s">
         <v>3497</v>
-      </c>
-      <c r="H1817" s="3" t="s">
-        <v>3498</v>
       </c>
       <c r="I1817" s="1">
         <v>9750046</v>
       </c>
-    </row>
-    <row r="1818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1817" s="3"/>
+    </row>
+    <row r="1818" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1818" s="1" t="s">
         <v>1</v>
       </c>
@@ -62726,16 +63067,17 @@
         <v>5807010</v>
       </c>
       <c r="G1818" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="H1818" s="3" t="s">
         <v>3500</v>
-      </c>
-      <c r="H1818" s="3" t="s">
-        <v>3501</v>
       </c>
       <c r="I1818" s="1">
         <v>9750047</v>
       </c>
-    </row>
-    <row r="1819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1818" s="3"/>
+    </row>
+    <row r="1819" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1819" s="1" t="s">
         <v>1</v>
       </c>
@@ -62755,16 +63097,17 @@
         <v>5807040</v>
       </c>
       <c r="G1819" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="H1819" s="3" t="s">
         <v>3503</v>
-      </c>
-      <c r="H1819" s="3" t="s">
-        <v>3504</v>
       </c>
       <c r="I1819" s="1">
         <v>9750048</v>
       </c>
-    </row>
-    <row r="1820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1819" s="3"/>
+    </row>
+    <row r="1820" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1820" s="1" t="s">
         <v>1</v>
       </c>
@@ -62784,16 +63127,17 @@
         <v>5807041</v>
       </c>
       <c r="G1820" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H1820" s="3" t="s">
         <v>3506</v>
-      </c>
-      <c r="H1820" s="3" t="s">
-        <v>3507</v>
       </c>
       <c r="I1820" s="1">
         <v>9750049</v>
       </c>
-    </row>
-    <row r="1821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1820" s="3"/>
+    </row>
+    <row r="1821" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1821" s="1" t="s">
         <v>1</v>
       </c>
@@ -62813,16 +63157,17 @@
         <v>5807040</v>
       </c>
       <c r="G1821" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="H1821" s="3" t="s">
         <v>3509</v>
-      </c>
-      <c r="H1821" s="3" t="s">
-        <v>3510</v>
       </c>
       <c r="I1821" s="1">
         <v>9750050</v>
       </c>
-    </row>
-    <row r="1822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1821" s="3"/>
+    </row>
+    <row r="1822" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1822" s="1" t="s">
         <v>1</v>
       </c>
@@ -62842,16 +63187,17 @@
         <v>5806930</v>
       </c>
       <c r="G1822" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="H1822" s="3" t="s">
         <v>3512</v>
-      </c>
-      <c r="H1822" s="3" t="s">
-        <v>3513</v>
       </c>
       <c r="I1822" s="1">
         <v>9750051</v>
       </c>
-    </row>
-    <row r="1823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1822" s="3"/>
+    </row>
+    <row r="1823" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1823" s="1" t="s">
         <v>1</v>
       </c>
@@ -62871,16 +63217,17 @@
         <v>5806930</v>
       </c>
       <c r="G1823" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="H1823" s="3" t="s">
         <v>3515</v>
-      </c>
-      <c r="H1823" s="3" t="s">
-        <v>3516</v>
       </c>
       <c r="I1823" s="1">
         <v>9750052</v>
       </c>
-    </row>
-    <row r="1824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1823" s="3"/>
+    </row>
+    <row r="1824" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1824" s="1" t="s">
         <v>1</v>
       </c>
@@ -62900,16 +63247,17 @@
         <v>5806931</v>
       </c>
       <c r="G1824" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H1824" s="3" t="s">
         <v>3518</v>
-      </c>
-      <c r="H1824" s="3" t="s">
-        <v>3519</v>
       </c>
       <c r="I1824" s="1">
         <v>9750053</v>
       </c>
-    </row>
-    <row r="1825" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1824" s="3"/>
+    </row>
+    <row r="1825" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1825" s="1" t="s">
         <v>1</v>
       </c>
@@ -62929,20 +63277,22 @@
         <v>5807069</v>
       </c>
       <c r="G1825" s="3" t="s">
+        <v>3522</v>
+      </c>
+      <c r="H1825" s="3" t="s">
         <v>3521</v>
-      </c>
-      <c r="H1825" s="3" t="s">
-        <v>3522</v>
       </c>
       <c r="I1825" s="1">
         <v>9750054</v>
       </c>
-    </row>
-    <row r="1826" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1825" s="3"/>
+    </row>
+    <row r="1826" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1826" s="3"/>
       <c r="H1826" s="3"/>
-    </row>
-    <row r="1827" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1826" s="3"/>
+    </row>
+    <row r="1827" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
         <v>0</v>
       </c>
@@ -62959,16 +63309,19 @@
         <v>5801417</v>
       </c>
       <c r="G1827" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="H1827" s="3" t="s">
         <v>3524</v>
       </c>
-      <c r="H1827" s="3" t="s">
-        <v>3525</v>
+      <c r="I1827" s="1">
+        <v>245027</v>
       </c>
       <c r="J1827" s="1">
-        <v>245027</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9245027</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
         <v>1</v>
       </c>
@@ -62988,16 +63341,18 @@
         <v>5801401</v>
       </c>
       <c r="G1828" s="3" t="s">
+        <v>3528</v>
+      </c>
+      <c r="H1828" s="3" t="s">
         <v>3527</v>
-      </c>
-      <c r="H1828" s="3" t="s">
-        <v>3528</v>
       </c>
       <c r="I1828" s="1">
         <v>9750863</v>
       </c>
-    </row>
-    <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1828" s="3"/>
+      <c r="L1828" s="3"/>
+    </row>
+    <row r="1829" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1829" s="1" t="s">
         <v>1</v>
       </c>
@@ -63017,16 +63372,17 @@
         <v>5801331</v>
       </c>
       <c r="G1829" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="H1829" s="3" t="s">
         <v>3529</v>
-      </c>
-      <c r="H1829" s="3" t="s">
-        <v>3530</v>
       </c>
       <c r="I1829" s="1">
         <v>9750864</v>
       </c>
-    </row>
-    <row r="1830" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1829" s="3"/>
+    </row>
+    <row r="1830" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1830" s="1" t="s">
         <v>4</v>
       </c>
@@ -63046,16 +63402,17 @@
         <v>5801404</v>
       </c>
       <c r="G1830" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="H1830" s="3" t="s">
         <v>1807</v>
-      </c>
-      <c r="H1830" s="3" t="s">
-        <v>3532</v>
       </c>
       <c r="I1830" s="1">
         <v>9750857</v>
       </c>
-    </row>
-    <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1830" s="3"/>
+    </row>
+    <row r="1831" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1831" s="1" t="s">
         <v>3</v>
       </c>
@@ -63075,16 +63432,17 @@
         <v>5801361</v>
       </c>
       <c r="G1831" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="H1831" s="3" t="s">
         <v>3534</v>
-      </c>
-      <c r="H1831" s="3" t="s">
-        <v>3535</v>
       </c>
       <c r="I1831" s="1">
         <v>9750854</v>
       </c>
-    </row>
-    <row r="1832" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1831" s="3"/>
+    </row>
+    <row r="1832" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1832" s="1" t="s">
         <v>3</v>
       </c>
@@ -63104,16 +63462,17 @@
         <v>5801342</v>
       </c>
       <c r="G1832" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="H1832" s="3" t="s">
         <v>3537</v>
-      </c>
-      <c r="H1832" s="3" t="s">
-        <v>3538</v>
       </c>
       <c r="I1832" s="1">
         <v>9750855</v>
       </c>
-    </row>
-    <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1832" s="3"/>
+    </row>
+    <row r="1833" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1833" s="1" t="s">
         <v>4</v>
       </c>
@@ -63133,16 +63492,17 @@
         <v>5801409</v>
       </c>
       <c r="G1833" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="H1833" s="3" t="s">
         <v>3540</v>
-      </c>
-      <c r="H1833" s="3" t="s">
-        <v>3541</v>
       </c>
       <c r="I1833" s="1">
         <v>9750858</v>
       </c>
-    </row>
-    <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1833" s="3"/>
+    </row>
+    <row r="1834" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
         <v>3</v>
       </c>
@@ -63162,16 +63522,17 @@
         <v>5801417</v>
       </c>
       <c r="G1834" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="H1834" s="3" t="s">
         <v>3543</v>
-      </c>
-      <c r="H1834" s="3" t="s">
-        <v>3544</v>
       </c>
       <c r="I1834" s="1">
         <v>9750853</v>
       </c>
-    </row>
-    <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1834" s="3"/>
+    </row>
+    <row r="1835" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
         <v>1</v>
       </c>
@@ -63191,16 +63552,17 @@
         <v>5801487</v>
       </c>
       <c r="G1835" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="H1835" s="3" t="s">
         <v>3546</v>
-      </c>
-      <c r="H1835" s="3" t="s">
-        <v>3547</v>
       </c>
       <c r="I1835" s="1">
         <v>9750861</v>
       </c>
-    </row>
-    <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1835" s="3"/>
+    </row>
+    <row r="1836" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
         <v>2</v>
       </c>
@@ -63220,16 +63582,17 @@
         <v>5801690</v>
       </c>
       <c r="G1836" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="H1836" s="3" t="s">
         <v>3548</v>
-      </c>
-      <c r="H1836" s="3" t="s">
-        <v>3549</v>
       </c>
       <c r="I1836" s="1">
         <v>9750851</v>
       </c>
-    </row>
-    <row r="1837" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1836" s="3"/>
+    </row>
+    <row r="1837" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1837" s="1" t="s">
         <v>2</v>
       </c>
@@ -63249,16 +63612,17 @@
         <v>5801250</v>
       </c>
       <c r="G1837" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="H1837" s="3" t="s">
         <v>3551</v>
-      </c>
-      <c r="H1837" s="3" t="s">
-        <v>3552</v>
       </c>
       <c r="I1837" s="1">
         <v>9750852</v>
       </c>
-    </row>
-    <row r="1838" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1837" s="3"/>
+    </row>
+    <row r="1838" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1838" s="1" t="s">
         <v>1</v>
       </c>
@@ -63278,16 +63642,17 @@
         <v>5801620</v>
       </c>
       <c r="G1838" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="H1838" s="3" t="s">
         <v>3554</v>
-      </c>
-      <c r="H1838" s="3" t="s">
-        <v>3555</v>
       </c>
       <c r="I1838" s="1">
         <v>9750860</v>
       </c>
-    </row>
-    <row r="1839" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1838" s="3"/>
+    </row>
+    <row r="1839" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1839" s="1" t="s">
         <v>1</v>
       </c>
@@ -63307,16 +63672,17 @@
         <v>5801512</v>
       </c>
       <c r="G1839" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="H1839" s="3" t="s">
         <v>3557</v>
-      </c>
-      <c r="H1839" s="3" t="s">
-        <v>3558</v>
       </c>
       <c r="I1839" s="1">
         <v>9750859</v>
       </c>
-    </row>
-    <row r="1840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1839" s="3"/>
+    </row>
+    <row r="1840" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1840" s="1" t="s">
         <v>3</v>
       </c>
@@ -63336,16 +63702,17 @@
         <v>5801455</v>
       </c>
       <c r="G1840" s="3" t="s">
+        <v>3561</v>
+      </c>
+      <c r="H1840" s="3" t="s">
         <v>3560</v>
-      </c>
-      <c r="H1840" s="3" t="s">
-        <v>3561</v>
       </c>
       <c r="I1840" s="1">
         <v>9750856</v>
       </c>
-    </row>
-    <row r="1841" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1840" s="3"/>
+    </row>
+    <row r="1841" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1841" s="1" t="s">
         <v>1</v>
       </c>
@@ -63365,16 +63732,17 @@
         <v>5801345</v>
       </c>
       <c r="G1841" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="H1841" s="3" t="s">
         <v>3563</v>
-      </c>
-      <c r="H1841" s="3" t="s">
-        <v>3564</v>
       </c>
       <c r="I1841" s="1">
         <v>9750867</v>
       </c>
-    </row>
-    <row r="1842" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1841" s="3"/>
+    </row>
+    <row r="1842" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1842" s="1" t="s">
         <v>1</v>
       </c>
@@ -63394,16 +63762,17 @@
         <v>5801350</v>
       </c>
       <c r="G1842" s="3" t="s">
+        <v>3566</v>
+      </c>
+      <c r="H1842" s="3" t="s">
         <v>3565</v>
-      </c>
-      <c r="H1842" s="3" t="s">
-        <v>3566</v>
       </c>
       <c r="I1842" s="1">
         <v>9750865</v>
       </c>
-    </row>
-    <row r="1843" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1842" s="3"/>
+    </row>
+    <row r="1843" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1843" s="1" t="s">
         <v>1</v>
       </c>
@@ -63423,16 +63792,17 @@
         <v>5801490</v>
       </c>
       <c r="G1843" s="3" t="s">
+        <v>3569</v>
+      </c>
+      <c r="H1843" s="3" t="s">
         <v>3568</v>
-      </c>
-      <c r="H1843" s="3" t="s">
-        <v>3569</v>
       </c>
       <c r="I1843" s="1">
         <v>9750862</v>
       </c>
-    </row>
-    <row r="1844" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1843" s="3"/>
+    </row>
+    <row r="1844" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1844" s="1" t="s">
         <v>1</v>
       </c>
@@ -63452,20 +63822,22 @@
         <v>5801355</v>
       </c>
       <c r="G1844" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="H1844" s="3" t="s">
         <v>3571</v>
-      </c>
-      <c r="H1844" s="3" t="s">
-        <v>3572</v>
       </c>
       <c r="I1844" s="1">
         <v>9750866</v>
       </c>
-    </row>
-    <row r="1845" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1844" s="3"/>
+    </row>
+    <row r="1845" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1845" s="3"/>
       <c r="H1845" s="3"/>
-    </row>
-    <row r="1846" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1845" s="3"/>
+    </row>
+    <row r="1846" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1846" s="1" t="s">
         <v>0</v>
       </c>
@@ -63482,16 +63854,19 @@
         <v>5816800</v>
       </c>
       <c r="G1846" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="H1846" s="3" t="s">
         <v>3574</v>
-      </c>
-      <c r="H1846" s="3" t="s">
-        <v>3575</v>
       </c>
       <c r="I1846" s="1">
         <v>58101</v>
       </c>
-    </row>
-    <row r="1847" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1846" s="1">
+        <v>9058101</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1847" s="1" t="s">
         <v>2</v>
       </c>
@@ -63511,16 +63886,17 @@
         <v>5816734</v>
       </c>
       <c r="G1847" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="H1847" s="3" t="s">
         <v>3577</v>
-      </c>
-      <c r="H1847" s="3" t="s">
-        <v>3578</v>
       </c>
       <c r="I1847" s="1">
         <v>9744852</v>
       </c>
-    </row>
-    <row r="1848" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1847" s="3"/>
+    </row>
+    <row r="1848" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1848" s="1" t="s">
         <v>2</v>
       </c>
@@ -63540,16 +63916,17 @@
         <v>5816710</v>
       </c>
       <c r="G1848" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="H1848" s="3" t="s">
         <v>3580</v>
-      </c>
-      <c r="H1848" s="3" t="s">
-        <v>3581</v>
       </c>
       <c r="I1848" s="1">
         <v>9744853</v>
       </c>
-    </row>
-    <row r="1849" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1848" s="3"/>
+    </row>
+    <row r="1849" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1849" s="1" t="s">
         <v>1</v>
       </c>
@@ -63569,16 +63946,17 @@
         <v>5816644</v>
       </c>
       <c r="G1849" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1849" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1849" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1849" s="1">
         <v>9744877</v>
       </c>
-    </row>
-    <row r="1850" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1849" s="3"/>
+    </row>
+    <row r="1850" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1850" s="1" t="s">
         <v>1</v>
       </c>
@@ -63598,16 +63976,17 @@
         <v>5816644</v>
       </c>
       <c r="G1850" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1850" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1850" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1850" s="1">
         <v>9744878</v>
       </c>
-    </row>
-    <row r="1851" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1850" s="3"/>
+    </row>
+    <row r="1851" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1851" s="1" t="s">
         <v>1</v>
       </c>
@@ -63627,16 +64006,17 @@
         <v>5816644</v>
       </c>
       <c r="G1851" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1851" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1851" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1851" s="1">
         <v>9744871</v>
       </c>
-    </row>
-    <row r="1852" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1851" s="3"/>
+    </row>
+    <row r="1852" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1852" s="1" t="s">
         <v>4</v>
       </c>
@@ -63656,16 +64036,17 @@
         <v>5816756</v>
       </c>
       <c r="G1852" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="H1852" s="3" t="s">
         <v>3588</v>
-      </c>
-      <c r="H1852" s="3" t="s">
-        <v>3589</v>
       </c>
       <c r="I1852" s="1">
         <v>9744861</v>
       </c>
-    </row>
-    <row r="1853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1852" s="3"/>
+    </row>
+    <row r="1853" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1853" s="1" t="s">
         <v>1</v>
       </c>
@@ -63685,16 +64066,17 @@
         <v>5816644</v>
       </c>
       <c r="G1853" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1853" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1853" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1853" s="1">
         <v>9744869</v>
       </c>
-    </row>
-    <row r="1854" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1853" s="3"/>
+    </row>
+    <row r="1854" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1854" s="1" t="s">
         <v>1</v>
       </c>
@@ -63714,16 +64096,17 @@
         <v>5816644</v>
       </c>
       <c r="G1854" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1854" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1854" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1854" s="1">
         <v>9744883</v>
       </c>
-    </row>
-    <row r="1855" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1854" s="3"/>
+    </row>
+    <row r="1855" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1855" s="1" t="s">
         <v>1</v>
       </c>
@@ -63743,16 +64126,17 @@
         <v>5816644</v>
       </c>
       <c r="G1855" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1855" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1855" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1855" s="1">
         <v>9744884</v>
       </c>
-    </row>
-    <row r="1856" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1855" s="3"/>
+    </row>
+    <row r="1856" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1856" s="1" t="s">
         <v>1</v>
       </c>
@@ -63772,16 +64156,17 @@
         <v>5816644</v>
       </c>
       <c r="G1856" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1856" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1856" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1856" s="1">
         <v>9744874</v>
       </c>
-    </row>
-    <row r="1857" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1856" s="3"/>
+    </row>
+    <row r="1857" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1857" s="1" t="s">
         <v>1</v>
       </c>
@@ -63801,16 +64186,17 @@
         <v>5816644</v>
       </c>
       <c r="G1857" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1857" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1857" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1857" s="1">
         <v>9744876</v>
       </c>
-    </row>
-    <row r="1858" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1857" s="3"/>
+    </row>
+    <row r="1858" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1858" s="1" t="s">
         <v>1</v>
       </c>
@@ -63830,16 +64216,17 @@
         <v>5816644</v>
       </c>
       <c r="G1858" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1858" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1858" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1858" s="1">
         <v>9744903</v>
       </c>
-    </row>
-    <row r="1859" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1858" s="3"/>
+    </row>
+    <row r="1859" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1859" s="1" t="s">
         <v>1</v>
       </c>
@@ -63859,16 +64246,17 @@
         <v>5816644</v>
       </c>
       <c r="G1859" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1859" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1859" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1859" s="1">
         <v>9744904</v>
       </c>
-    </row>
-    <row r="1860" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1859" s="3"/>
+    </row>
+    <row r="1860" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1860" s="1" t="s">
         <v>1</v>
       </c>
@@ -63888,16 +64276,17 @@
         <v>5816644</v>
       </c>
       <c r="G1860" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1860" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1860" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1860" s="1">
         <v>9744905</v>
       </c>
-    </row>
-    <row r="1861" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1860" s="3"/>
+    </row>
+    <row r="1861" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1861" s="1" t="s">
         <v>1</v>
       </c>
@@ -63917,16 +64306,17 @@
         <v>5816644</v>
       </c>
       <c r="G1861" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1861" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1861" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1861" s="1">
         <v>9744913</v>
       </c>
-    </row>
-    <row r="1862" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1861" s="3"/>
+    </row>
+    <row r="1862" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1862" s="1" t="s">
         <v>1</v>
       </c>
@@ -63946,16 +64336,17 @@
         <v>5816644</v>
       </c>
       <c r="G1862" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1862" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1862" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1862" s="1">
         <v>9744916</v>
       </c>
-    </row>
-    <row r="1863" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1862" s="3"/>
+    </row>
+    <row r="1863" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1863" s="1" t="s">
         <v>1</v>
       </c>
@@ -63975,16 +64366,17 @@
         <v>5816644</v>
       </c>
       <c r="G1863" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1863" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1863" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1863" s="1">
         <v>9744921</v>
       </c>
-    </row>
-    <row r="1864" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1863" s="3"/>
+    </row>
+    <row r="1864" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
         <v>1</v>
       </c>
@@ -64004,16 +64396,17 @@
         <v>5816644</v>
       </c>
       <c r="G1864" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1864" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1864" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1864" s="1">
         <v>9744880</v>
       </c>
-    </row>
-    <row r="1865" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1864" s="3"/>
+    </row>
+    <row r="1865" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1865" s="1" t="s">
         <v>1</v>
       </c>
@@ -64033,16 +64426,17 @@
         <v>5816644</v>
       </c>
       <c r="G1865" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1865" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1865" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1865" s="1">
         <v>9744873</v>
       </c>
-    </row>
-    <row r="1866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1865" s="3"/>
+    </row>
+    <row r="1866" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1866" s="1" t="s">
         <v>1</v>
       </c>
@@ -64062,16 +64456,17 @@
         <v>5816644</v>
       </c>
       <c r="G1866" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1866" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1866" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1866" s="1">
         <v>9744870</v>
       </c>
-    </row>
-    <row r="1867" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1866" s="3"/>
+    </row>
+    <row r="1867" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1867" s="1" t="s">
         <v>1</v>
       </c>
@@ -64091,16 +64486,17 @@
         <v>5816644</v>
       </c>
       <c r="G1867" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1867" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1867" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1867" s="1">
         <v>9744866</v>
       </c>
-    </row>
-    <row r="1868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1867" s="3"/>
+    </row>
+    <row r="1868" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1868" s="1" t="s">
         <v>1</v>
       </c>
@@ -64120,16 +64516,17 @@
         <v>5816644</v>
       </c>
       <c r="G1868" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1868" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1868" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1868" s="1">
         <v>9744867</v>
       </c>
-    </row>
-    <row r="1869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1868" s="3"/>
+    </row>
+    <row r="1869" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
         <v>3</v>
       </c>
@@ -64149,16 +64546,17 @@
         <v>5816798</v>
       </c>
       <c r="G1869" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="H1869" s="3" t="s">
         <v>3607</v>
-      </c>
-      <c r="H1869" s="3" t="s">
-        <v>3608</v>
       </c>
       <c r="I1869" s="1">
         <v>9744858</v>
       </c>
-    </row>
-    <row r="1870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1869" s="3"/>
+    </row>
+    <row r="1870" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1870" s="1" t="s">
         <v>1</v>
       </c>
@@ -64178,16 +64576,17 @@
         <v>5816644</v>
       </c>
       <c r="G1870" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1870" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1870" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1870" s="1">
         <v>9744885</v>
       </c>
-    </row>
-    <row r="1871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1870" s="3"/>
+    </row>
+    <row r="1871" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1871" s="1" t="s">
         <v>1</v>
       </c>
@@ -64207,16 +64606,17 @@
         <v>5816644</v>
       </c>
       <c r="G1871" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1871" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1871" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1871" s="1">
         <v>9744886</v>
       </c>
-    </row>
-    <row r="1872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1871" s="3"/>
+    </row>
+    <row r="1872" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1872" s="1" t="s">
         <v>1</v>
       </c>
@@ -64236,16 +64636,17 @@
         <v>5816644</v>
       </c>
       <c r="G1872" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1872" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1872" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1872" s="1">
         <v>9744890</v>
       </c>
-    </row>
-    <row r="1873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1872" s="3"/>
+    </row>
+    <row r="1873" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1873" s="1" t="s">
         <v>1</v>
       </c>
@@ -64265,16 +64666,17 @@
         <v>5816644</v>
       </c>
       <c r="G1873" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1873" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1873" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1873" s="1">
         <v>9744865</v>
       </c>
-    </row>
-    <row r="1874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1873" s="3"/>
+    </row>
+    <row r="1874" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1874" s="1" t="s">
         <v>1</v>
       </c>
@@ -64294,16 +64696,17 @@
         <v>5816644</v>
       </c>
       <c r="G1874" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1874" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1874" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1874" s="1">
         <v>9744891</v>
       </c>
-    </row>
-    <row r="1875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1874" s="3"/>
+    </row>
+    <row r="1875" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1875" s="1" t="s">
         <v>1</v>
       </c>
@@ -64323,16 +64726,17 @@
         <v>5816644</v>
       </c>
       <c r="G1875" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1875" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1875" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1875" s="1">
         <v>9744914</v>
       </c>
-    </row>
-    <row r="1876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1875" s="3"/>
+    </row>
+    <row r="1876" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1876" s="1" t="s">
         <v>2</v>
       </c>
@@ -64352,16 +64756,17 @@
         <v>5816694</v>
       </c>
       <c r="G1876" s="3" t="s">
+        <v>3615</v>
+      </c>
+      <c r="H1876" s="3" t="s">
         <v>3614</v>
-      </c>
-      <c r="H1876" s="3" t="s">
-        <v>3615</v>
       </c>
       <c r="I1876" s="1">
         <v>9744851</v>
       </c>
-    </row>
-    <row r="1877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1876" s="3"/>
+    </row>
+    <row r="1877" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
         <v>4</v>
       </c>
@@ -64381,16 +64786,17 @@
         <v>5816748</v>
       </c>
       <c r="G1877" s="3" t="s">
+        <v>3618</v>
+      </c>
+      <c r="H1877" s="3" t="s">
         <v>3617</v>
-      </c>
-      <c r="H1877" s="3" t="s">
-        <v>3618</v>
       </c>
       <c r="I1877" s="1">
         <v>9744862</v>
       </c>
-    </row>
-    <row r="1878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1877" s="3"/>
+    </row>
+    <row r="1878" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
         <v>2</v>
       </c>
@@ -64410,16 +64816,17 @@
         <v>5816658</v>
       </c>
       <c r="G1878" s="3" t="s">
+        <v>3621</v>
+      </c>
+      <c r="H1878" s="3" t="s">
         <v>3620</v>
-      </c>
-      <c r="H1878" s="3" t="s">
-        <v>3621</v>
       </c>
       <c r="I1878" s="1">
         <v>9744854</v>
       </c>
-    </row>
-    <row r="1879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1878" s="3"/>
+    </row>
+    <row r="1879" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
         <v>1</v>
       </c>
@@ -64439,16 +64846,17 @@
         <v>5816644</v>
       </c>
       <c r="G1879" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1879" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1879" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1879" s="1">
         <v>9744907</v>
       </c>
-    </row>
-    <row r="1880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1879" s="3"/>
+    </row>
+    <row r="1880" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
         <v>1</v>
       </c>
@@ -64468,16 +64876,17 @@
         <v>5816644</v>
       </c>
       <c r="G1880" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1880" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1880" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1880" s="1">
         <v>9744917</v>
       </c>
-    </row>
-    <row r="1881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1880" s="3"/>
+    </row>
+    <row r="1881" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
         <v>1</v>
       </c>
@@ -64497,16 +64906,17 @@
         <v>5816644</v>
       </c>
       <c r="G1881" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1881" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1881" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1881" s="1">
         <v>9744919</v>
       </c>
-    </row>
-    <row r="1882" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1881" s="3"/>
+    </row>
+    <row r="1882" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
         <v>1</v>
       </c>
@@ -64526,16 +64936,17 @@
         <v>5816644</v>
       </c>
       <c r="G1882" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1882" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1882" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1882" s="1">
         <v>9744923</v>
       </c>
-    </row>
-    <row r="1883" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1882" s="3"/>
+    </row>
+    <row r="1883" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
         <v>3</v>
       </c>
@@ -64555,16 +64966,17 @@
         <v>5816566</v>
       </c>
       <c r="G1883" s="3" t="s">
+        <v>3628</v>
+      </c>
+      <c r="H1883" s="3" t="s">
         <v>3627</v>
-      </c>
-      <c r="H1883" s="3" t="s">
-        <v>3628</v>
       </c>
       <c r="I1883" s="1">
         <v>9744855</v>
       </c>
-    </row>
-    <row r="1884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1883" s="3"/>
+    </row>
+    <row r="1884" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
         <v>3</v>
       </c>
@@ -64584,16 +64996,17 @@
         <v>5816810</v>
       </c>
       <c r="G1884" s="3" t="s">
+        <v>3631</v>
+      </c>
+      <c r="H1884" s="3" t="s">
         <v>3630</v>
-      </c>
-      <c r="H1884" s="3" t="s">
-        <v>3631</v>
       </c>
       <c r="I1884" s="1">
         <v>9744857</v>
       </c>
-    </row>
-    <row r="1885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1884" s="3"/>
+    </row>
+    <row r="1885" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
         <v>3</v>
       </c>
@@ -64613,16 +65026,17 @@
         <v>5816588</v>
       </c>
       <c r="G1885" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="H1885" s="3" t="s">
         <v>3633</v>
-      </c>
-      <c r="H1885" s="3" t="s">
-        <v>3634</v>
       </c>
       <c r="I1885" s="1">
         <v>9744856</v>
       </c>
-    </row>
-    <row r="1886" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1885" s="3"/>
+    </row>
+    <row r="1886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
         <v>1</v>
       </c>
@@ -64642,16 +65056,17 @@
         <v>5816644</v>
       </c>
       <c r="G1886" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1886" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1886" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1886" s="1">
         <v>9744882</v>
       </c>
-    </row>
-    <row r="1887" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1886" s="3"/>
+    </row>
+    <row r="1887" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
         <v>1</v>
       </c>
@@ -64671,16 +65086,17 @@
         <v>5816644</v>
       </c>
       <c r="G1887" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1887" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1887" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1887" s="1">
         <v>9744888</v>
       </c>
-    </row>
-    <row r="1888" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1887" s="3"/>
+    </row>
+    <row r="1888" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
         <v>1</v>
       </c>
@@ -64700,16 +65116,17 @@
         <v>5816644</v>
       </c>
       <c r="G1888" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1888" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1888" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1888" s="1">
         <v>9744900</v>
       </c>
-    </row>
-    <row r="1889" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1888" s="3"/>
+    </row>
+    <row r="1889" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
         <v>1</v>
       </c>
@@ -64729,16 +65146,17 @@
         <v>5816644</v>
       </c>
       <c r="G1889" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1889" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1889" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1889" s="1">
         <v>9744901</v>
       </c>
-    </row>
-    <row r="1890" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1889" s="3"/>
+    </row>
+    <row r="1890" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
         <v>1</v>
       </c>
@@ -64758,16 +65176,17 @@
         <v>5816644</v>
       </c>
       <c r="G1890" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1890" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1890" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1890" s="1">
         <v>9744909</v>
       </c>
-    </row>
-    <row r="1891" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1890" s="3"/>
+    </row>
+    <row r="1891" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
         <v>1</v>
       </c>
@@ -64787,16 +65206,17 @@
         <v>5816644</v>
       </c>
       <c r="G1891" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1891" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1891" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1891" s="1">
         <v>9744910</v>
       </c>
-    </row>
-    <row r="1892" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1891" s="3"/>
+    </row>
+    <row r="1892" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
         <v>1</v>
       </c>
@@ -64816,16 +65236,17 @@
         <v>5816644</v>
       </c>
       <c r="G1892" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1892" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1892" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1892" s="1">
         <v>9744920</v>
       </c>
-    </row>
-    <row r="1893" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1892" s="3"/>
+    </row>
+    <row r="1893" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
         <v>1</v>
       </c>
@@ -64845,16 +65266,17 @@
         <v>5816644</v>
       </c>
       <c r="G1893" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1893" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1893" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1893" s="1">
         <v>9744922</v>
       </c>
-    </row>
-    <row r="1894" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1893" s="3"/>
+    </row>
+    <row r="1894" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1894" s="1" t="s">
         <v>1</v>
       </c>
@@ -64874,16 +65296,17 @@
         <v>5816644</v>
       </c>
       <c r="G1894" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1894" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1894" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1894" s="1">
         <v>9744872</v>
       </c>
-    </row>
-    <row r="1895" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1894" s="3"/>
+    </row>
+    <row r="1895" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1895" s="1" t="s">
         <v>1</v>
       </c>
@@ -64903,16 +65326,17 @@
         <v>5816644</v>
       </c>
       <c r="G1895" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1895" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1895" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1895" s="1">
         <v>9744875</v>
       </c>
-    </row>
-    <row r="1896" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1895" s="3"/>
+    </row>
+    <row r="1896" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
         <v>1</v>
       </c>
@@ -64932,16 +65356,17 @@
         <v>5816644</v>
       </c>
       <c r="G1896" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1896" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1896" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1896" s="1">
         <v>9744893</v>
       </c>
-    </row>
-    <row r="1897" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1896" s="3"/>
+    </row>
+    <row r="1897" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
         <v>1</v>
       </c>
@@ -64961,16 +65386,17 @@
         <v>5816644</v>
       </c>
       <c r="G1897" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1897" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1897" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1897" s="1">
         <v>9744897</v>
       </c>
-    </row>
-    <row r="1898" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1897" s="3"/>
+    </row>
+    <row r="1898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1898" s="1" t="s">
         <v>3</v>
       </c>
@@ -64988,8 +65414,9 @@
       <c r="I1898" s="1">
         <v>9744908</v>
       </c>
-    </row>
-    <row r="1899" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1898" s="3"/>
+    </row>
+    <row r="1899" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
         <v>1</v>
       </c>
@@ -65009,16 +65436,17 @@
         <v>5816644</v>
       </c>
       <c r="G1899" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1899" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1899" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1899" s="1">
         <v>9744911</v>
       </c>
-    </row>
-    <row r="1900" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1899" s="3"/>
+    </row>
+    <row r="1900" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
         <v>1</v>
       </c>
@@ -65038,16 +65466,17 @@
         <v>5816644</v>
       </c>
       <c r="G1900" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1900" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1900" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1900" s="1">
         <v>9744912</v>
       </c>
-    </row>
-    <row r="1901" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1900" s="3"/>
+    </row>
+    <row r="1901" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
         <v>3</v>
       </c>
@@ -65065,8 +65494,9 @@
       <c r="I1901" s="1">
         <v>9744915</v>
       </c>
-    </row>
-    <row r="1902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1901" s="3"/>
+    </row>
+    <row r="1902" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
         <v>1</v>
       </c>
@@ -65086,16 +65516,17 @@
         <v>5816644</v>
       </c>
       <c r="G1902" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1902" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1902" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1902" s="1">
         <v>9744863</v>
       </c>
-    </row>
-    <row r="1903" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1902" s="3"/>
+    </row>
+    <row r="1903" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
         <v>1</v>
       </c>
@@ -65115,16 +65546,17 @@
         <v>5816644</v>
       </c>
       <c r="G1903" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1903" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1903" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1903" s="1">
         <v>9744868</v>
       </c>
-    </row>
-    <row r="1904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1903" s="3"/>
+    </row>
+    <row r="1904" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
         <v>1</v>
       </c>
@@ -65144,16 +65576,17 @@
         <v>5816644</v>
       </c>
       <c r="G1904" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1904" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1904" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1904" s="1">
         <v>9744887</v>
       </c>
-    </row>
-    <row r="1905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1904" s="3"/>
+    </row>
+    <row r="1905" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
         <v>1</v>
       </c>
@@ -65173,16 +65606,17 @@
         <v>5816644</v>
       </c>
       <c r="G1905" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1905" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1905" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1905" s="1">
         <v>9744889</v>
       </c>
-    </row>
-    <row r="1906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1905" s="3"/>
+    </row>
+    <row r="1906" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
         <v>1</v>
       </c>
@@ -65202,16 +65636,17 @@
         <v>5816644</v>
       </c>
       <c r="G1906" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1906" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1906" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1906" s="1">
         <v>9744894</v>
       </c>
-    </row>
-    <row r="1907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1906" s="3"/>
+    </row>
+    <row r="1907" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
         <v>1</v>
       </c>
@@ -65231,16 +65666,17 @@
         <v>5816644</v>
       </c>
       <c r="G1907" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1907" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1907" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1907" s="1">
         <v>9744895</v>
       </c>
-    </row>
-    <row r="1908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1907" s="3"/>
+    </row>
+    <row r="1908" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>1</v>
       </c>
@@ -65260,16 +65696,17 @@
         <v>5816644</v>
       </c>
       <c r="G1908" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1908" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1908" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1908" s="1">
         <v>9744879</v>
       </c>
-    </row>
-    <row r="1909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1908" s="3"/>
+    </row>
+    <row r="1909" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>1</v>
       </c>
@@ -65289,16 +65726,17 @@
         <v>5816644</v>
       </c>
       <c r="G1909" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1909" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1909" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1909" s="1">
         <v>9744864</v>
       </c>
-    </row>
-    <row r="1910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1909" s="3"/>
+    </row>
+    <row r="1910" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>4</v>
       </c>
@@ -65318,16 +65756,17 @@
         <v>5816754</v>
       </c>
       <c r="G1910" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="H1910" s="3" t="s">
         <v>3660</v>
-      </c>
-      <c r="H1910" s="3" t="s">
-        <v>3661</v>
       </c>
       <c r="I1910" s="1">
         <v>9744860</v>
       </c>
-    </row>
-    <row r="1911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1910" s="3"/>
+    </row>
+    <row r="1911" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
         <v>4</v>
       </c>
@@ -65347,16 +65786,17 @@
         <v>5816814</v>
       </c>
       <c r="G1911" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="H1911" s="3" t="s">
         <v>3663</v>
-      </c>
-      <c r="H1911" s="3" t="s">
-        <v>3664</v>
       </c>
       <c r="I1911" s="1">
         <v>9744859</v>
       </c>
-    </row>
-    <row r="1912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1911" s="3"/>
+    </row>
+    <row r="1912" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
         <v>1</v>
       </c>
@@ -65376,16 +65816,17 @@
         <v>5816644</v>
       </c>
       <c r="G1912" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1912" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1912" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1912" s="1">
         <v>9744881</v>
       </c>
-    </row>
-    <row r="1913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1912" s="3"/>
+    </row>
+    <row r="1913" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
         <v>1</v>
       </c>
@@ -65405,16 +65846,17 @@
         <v>5816644</v>
       </c>
       <c r="G1913" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1913" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1913" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1913" s="1">
         <v>9744892</v>
       </c>
-    </row>
-    <row r="1914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1913" s="3"/>
+    </row>
+    <row r="1914" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
         <v>1</v>
       </c>
@@ -65434,16 +65876,17 @@
         <v>5816644</v>
       </c>
       <c r="G1914" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1914" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1914" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1914" s="1">
         <v>9744896</v>
       </c>
-    </row>
-    <row r="1915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1914" s="3"/>
+    </row>
+    <row r="1915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
         <v>1</v>
       </c>
@@ -65463,16 +65906,17 @@
         <v>5816644</v>
       </c>
       <c r="G1915" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1915" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1915" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1915" s="1">
         <v>9744898</v>
       </c>
-    </row>
-    <row r="1916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1915" s="3"/>
+    </row>
+    <row r="1916" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>1</v>
       </c>
@@ -65492,16 +65936,17 @@
         <v>5816644</v>
       </c>
       <c r="G1916" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1916" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1916" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1916" s="1">
         <v>9744899</v>
       </c>
-    </row>
-    <row r="1917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1916" s="3"/>
+    </row>
+    <row r="1917" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
         <v>3</v>
       </c>
@@ -65521,16 +65966,17 @@
         <v>5816603</v>
       </c>
       <c r="G1917" s="3" t="s">
+        <v>3672</v>
+      </c>
+      <c r="H1917" s="3" t="s">
         <v>3671</v>
-      </c>
-      <c r="H1917" s="3" t="s">
-        <v>3672</v>
       </c>
       <c r="I1917" s="1">
         <v>9744902</v>
       </c>
-    </row>
-    <row r="1918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1917" s="3"/>
+    </row>
+    <row r="1918" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
         <v>1</v>
       </c>
@@ -65550,16 +65996,17 @@
         <v>5816644</v>
       </c>
       <c r="G1918" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1918" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1918" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1918" s="1">
         <v>9744906</v>
       </c>
-    </row>
-    <row r="1919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1918" s="3"/>
+    </row>
+    <row r="1919" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
         <v>1</v>
       </c>
@@ -65579,153 +66026,204 @@
         <v>5816644</v>
       </c>
       <c r="G1919" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H1919" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="H1919" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="I1919" s="1">
         <v>9744918</v>
       </c>
+      <c r="L1919" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:J412 A462:J462 A486:J486 A512:J512 A613:J613 A648:J648 A683:J683 A721:J721 A747:J747 A772:J772 A800:J800 A834:J834 A869:J869 A894:J894 A1010:J1010 A1055:J1055 A1303:J1303 A1329:J1329 A1379:J1379 A1416:J1416 A1519:J1519 A1600:J1600 A1744:J1744 A1770:J1770 A1920:J1048576 G1771:H1825 A1771:F1919 I1771:K1919">
-    <cfRule type="expression" dxfId="27" priority="30">
+  <conditionalFormatting sqref="A1:J412 A462:J462 A486:J486 A512:J512 A613:J613 A648:J648 A683:J683 A721:J721 A747:J747 A772:J772 A800:J800 A834:J834 A869:J869 A894:J894 A1010:J1010 A1055:J1055 A1303:J1303 A1329:J1329 A1379:J1379 A1416:J1416 A1519:J1519 A1600:J1600 A1744:J1744 A1770:J1770 A1920:J1048576 A1771:F1919 I1772:K1826 I1771:J1771 I1829:K1845 I1827:J1828 I1847:K1919 I1846:J1846">
+    <cfRule type="expression" dxfId="59" priority="46">
       <formula>IF($A1="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A413:J461">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="58" priority="43">
       <formula>IF($A413="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A463:J485">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="57" priority="42">
       <formula>IF($A463="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A487:J511">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>IF($A487="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A513:J612">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="55" priority="40">
       <formula>IF($A513="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A614:J647">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="54" priority="39">
       <formula>IF($A614="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A649:J682">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="53" priority="38">
       <formula>IF($A649="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A684:J720">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="52" priority="37">
       <formula>IF($A684="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A722:J746">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="51" priority="36">
       <formula>IF($A722="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748:J771">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="50" priority="35">
       <formula>IF($A748="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A773:J799">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="49" priority="34">
       <formula>IF($A773="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:J833">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="48" priority="33">
       <formula>IF($A801="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A835:J868">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="47" priority="32">
       <formula>IF($A835="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A870:J893">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="46" priority="31">
       <formula>IF($A870="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A895:J1009">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="45" priority="30">
       <formula>IF($A895="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1011:J1054">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="44" priority="29">
       <formula>IF($A1011="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1056:J1302">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="43" priority="28">
       <formula>IF($A1056="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1304:J1328">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>IF($A1304="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1330:J1378">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="41" priority="26">
       <formula>IF($A1330="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1380:J1415">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>IF($A1380="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1417:J1518">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="39" priority="24">
       <formula>IF($A1417="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1520:J1599">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="38" priority="23">
       <formula>IF($A1520="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1601:J1743">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>IF($A1601="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1745:J1769">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>IF($A1745="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1845:H1919">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="L1772:L1825">
+    <cfRule type="expression" dxfId="31" priority="16">
+      <formula>IF($A1772="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1845 L1847:L1919">
+    <cfRule type="expression" dxfId="29" priority="14">
       <formula>IF($A1845="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1829:H1844">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="L1829:L1844">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>IF($A1828="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1827:H1827">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="G1771:G1825">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>IF($A1771="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1845:G1919">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>IF($A1845="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1829:G1844">
+    <cfRule type="expression" dxfId="17" priority="10">
+      <formula>IF($A1828="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1827">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>IF($A1827="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1828:H1828">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="G1828">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>IF($A1828="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1771:H1825">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>IF($A1771="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1845:H1919">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>IF($A1845="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1829:H1844">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>IF($A1828="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1827">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>IF($A1827="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1828">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>IF($A1828="Bauwerk",1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1828:L1828">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF($A1828="Bauwerk",1,"")</formula>
     </cfRule>
   </conditionalFormatting>
